--- a/SchedulingData/dynamic13/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.81999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="E2" t="n">
-        <v>25.788</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>76.66</v>
+        <v>49.88</v>
       </c>
       <c r="E3" t="n">
-        <v>26.024</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.14</v>
+        <v>114.9</v>
       </c>
       <c r="E4" t="n">
-        <v>26.136</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.14</v>
+        <v>52.1</v>
       </c>
       <c r="D5" t="n">
-        <v>114.34</v>
+        <v>98.16</v>
       </c>
       <c r="E5" t="n">
-        <v>23.336</v>
+        <v>23.484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>114.9</v>
       </c>
       <c r="D6" t="n">
-        <v>66.26000000000001</v>
+        <v>172.92</v>
       </c>
       <c r="E6" t="n">
-        <v>26.524</v>
+        <v>21.448</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.78</v>
+        <v>42.2</v>
       </c>
       <c r="E7" t="n">
-        <v>26.672</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>49.88</v>
       </c>
       <c r="D8" t="n">
-        <v>68.56</v>
+        <v>85.58</v>
       </c>
       <c r="E8" t="n">
-        <v>26.304</v>
+        <v>24.752</v>
       </c>
     </row>
     <row r="9">
@@ -599,93 +599,93 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140.7</v>
+        <v>57.16</v>
       </c>
       <c r="E9" t="n">
-        <v>22.72</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114.34</v>
+        <v>42.2</v>
       </c>
       <c r="D10" t="n">
-        <v>159.24</v>
+        <v>122.86</v>
       </c>
       <c r="E10" t="n">
-        <v>19.976</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76.66</v>
+        <v>122.86</v>
       </c>
       <c r="D11" t="n">
-        <v>123.26</v>
+        <v>178.14</v>
       </c>
       <c r="E11" t="n">
-        <v>22.004</v>
+        <v>19.596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68.56</v>
+        <v>178.14</v>
       </c>
       <c r="D12" t="n">
-        <v>109.5</v>
+        <v>252.88</v>
       </c>
       <c r="E12" t="n">
-        <v>23.34</v>
+        <v>15.732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66.26000000000001</v>
+        <v>252.88</v>
       </c>
       <c r="D13" t="n">
-        <v>115.96</v>
+        <v>297.98</v>
       </c>
       <c r="E13" t="n">
-        <v>22.684</v>
+        <v>12.852</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>123.26</v>
+        <v>85.58</v>
       </c>
       <c r="D14" t="n">
-        <v>210.66</v>
+        <v>148.64</v>
       </c>
       <c r="E14" t="n">
-        <v>17.844</v>
+        <v>21.056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.78</v>
+        <v>57.16</v>
       </c>
       <c r="D15" t="n">
-        <v>135.06</v>
+        <v>110.58</v>
       </c>
       <c r="E15" t="n">
-        <v>23.264</v>
+        <v>22.252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>140.7</v>
+        <v>98.16</v>
       </c>
       <c r="D16" t="n">
-        <v>197.5</v>
+        <v>160.94</v>
       </c>
       <c r="E16" t="n">
-        <v>19.18</v>
+        <v>20.316</v>
       </c>
     </row>
     <row r="17">
@@ -751,36 +751,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>197.5</v>
+        <v>110.58</v>
       </c>
       <c r="D17" t="n">
-        <v>247.9</v>
+        <v>178.18</v>
       </c>
       <c r="E17" t="n">
-        <v>16.74</v>
+        <v>18.092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>247.9</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>294.56</v>
+        <v>42.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13.204</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>210.66</v>
+        <v>148.64</v>
       </c>
       <c r="D19" t="n">
-        <v>282.36</v>
+        <v>205.1</v>
       </c>
       <c r="E19" t="n">
-        <v>13.764</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>159.24</v>
+        <v>160.94</v>
       </c>
       <c r="D20" t="n">
-        <v>224.34</v>
+        <v>200.4</v>
       </c>
       <c r="E20" t="n">
-        <v>17.096</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>135.06</v>
+        <v>42.3</v>
       </c>
       <c r="D21" t="n">
-        <v>171.32</v>
+        <v>102.1</v>
       </c>
       <c r="E21" t="n">
-        <v>20.768</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="22">
@@ -846,169 +846,169 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>224.34</v>
+        <v>102.1</v>
       </c>
       <c r="D22" t="n">
-        <v>279.46</v>
+        <v>148.98</v>
       </c>
       <c r="E22" t="n">
-        <v>14.184</v>
+        <v>21.032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>282.36</v>
+        <v>148.98</v>
       </c>
       <c r="D23" t="n">
-        <v>330.46</v>
+        <v>223.18</v>
       </c>
       <c r="E23" t="n">
-        <v>11.564</v>
+        <v>18.232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171.32</v>
+        <v>205.1</v>
       </c>
       <c r="D24" t="n">
-        <v>260.12</v>
+        <v>260.2</v>
       </c>
       <c r="E24" t="n">
-        <v>16.988</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>115.96</v>
+        <v>223.18</v>
       </c>
       <c r="D25" t="n">
-        <v>182.26</v>
+        <v>272.88</v>
       </c>
       <c r="E25" t="n">
-        <v>19.644</v>
+        <v>14.392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>182.26</v>
+        <v>172.92</v>
       </c>
       <c r="D26" t="n">
-        <v>229.7</v>
+        <v>217.5</v>
       </c>
       <c r="E26" t="n">
-        <v>16.52</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>260.12</v>
+        <v>272.88</v>
       </c>
       <c r="D27" t="n">
-        <v>303.24</v>
+        <v>342.68</v>
       </c>
       <c r="E27" t="n">
-        <v>13.816</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>229.7</v>
+        <v>217.5</v>
       </c>
       <c r="D28" t="n">
-        <v>301.7</v>
+        <v>289.4</v>
       </c>
       <c r="E28" t="n">
-        <v>12.92</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>279.46</v>
+        <v>297.98</v>
       </c>
       <c r="D29" t="n">
-        <v>337.48</v>
+        <v>366.68</v>
       </c>
       <c r="E29" t="n">
-        <v>10.492</v>
+        <v>9.071999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>337.48</v>
+        <v>200.4</v>
       </c>
       <c r="D30" t="n">
-        <v>377.38</v>
+        <v>255.34</v>
       </c>
       <c r="E30" t="n">
-        <v>7.632</v>
+        <v>13.636</v>
       </c>
     </row>
     <row r="31">
@@ -1017,188 +1017,188 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>294.56</v>
+        <v>178.18</v>
       </c>
       <c r="D31" t="n">
-        <v>357.02</v>
+        <v>225.58</v>
       </c>
       <c r="E31" t="n">
-        <v>10.068</v>
+        <v>14.492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>303.24</v>
+        <v>225.58</v>
       </c>
       <c r="D32" t="n">
-        <v>375.62</v>
+        <v>301.14</v>
       </c>
       <c r="E32" t="n">
-        <v>10.648</v>
+        <v>10.516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>109.5</v>
+        <v>260.2</v>
       </c>
       <c r="D33" t="n">
-        <v>185.8</v>
+        <v>312.54</v>
       </c>
       <c r="E33" t="n">
-        <v>19.82</v>
+        <v>11.016</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>377.38</v>
+        <v>366.68</v>
       </c>
       <c r="D34" t="n">
-        <v>417.28</v>
+        <v>407.1</v>
       </c>
       <c r="E34" t="n">
-        <v>4.772</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>185.8</v>
+        <v>342.68</v>
       </c>
       <c r="D35" t="n">
-        <v>273.56</v>
+        <v>404.38</v>
       </c>
       <c r="E35" t="n">
-        <v>16.124</v>
+        <v>7.992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>357.02</v>
+        <v>255.34</v>
       </c>
       <c r="D36" t="n">
-        <v>446.82</v>
+        <v>293.74</v>
       </c>
       <c r="E36" t="n">
-        <v>5.208</v>
+        <v>11.436</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>273.56</v>
+        <v>312.54</v>
       </c>
       <c r="D37" t="n">
-        <v>323.6</v>
+        <v>382.24</v>
       </c>
       <c r="E37" t="n">
-        <v>12.26</v>
+        <v>7.656</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>323.6</v>
+        <v>301.14</v>
       </c>
       <c r="D38" t="n">
-        <v>358.16</v>
+        <v>369</v>
       </c>
       <c r="E38" t="n">
-        <v>9.444000000000001</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>375.62</v>
+        <v>404.38</v>
       </c>
       <c r="D39" t="n">
-        <v>420.72</v>
+        <v>455.22</v>
       </c>
       <c r="E39" t="n">
-        <v>7.268</v>
+        <v>5.028</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>301.7</v>
+        <v>407.1</v>
       </c>
       <c r="D40" t="n">
-        <v>375.68</v>
+        <v>455.12</v>
       </c>
       <c r="E40" t="n">
-        <v>10.112</v>
+        <v>2.988</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>330.46</v>
+        <v>382.24</v>
       </c>
       <c r="D41" t="n">
-        <v>387.02</v>
+        <v>424.9</v>
       </c>
       <c r="E41" t="n">
-        <v>8.028</v>
+        <v>4.52</v>
       </c>
     </row>
   </sheetData>
